--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3041339.673464054</v>
+        <v>3145519.307915126</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>131.6045095424844</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>282.6988068886403</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>98.12640288586319</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.19701978440991</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>298.2211116725514</v>
       </c>
       <c r="C5" t="n">
-        <v>48.52634901049003</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -950,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>106.5867442799591</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>161.059121501438</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>308.2872984606437</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>4.791624857388888</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>110.7115619691718</v>
       </c>
       <c r="G10" t="n">
-        <v>82.70057996958639</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>74.53917159609117</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>211.22848306867</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>139.9371893537533</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.8757728051409</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>98.72106119200259</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9367233701397</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>222.8161206669567</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>95.12712756824324</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G31" t="n">
-        <v>20.92847288552852</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.839588425939253</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>140.3829797864967</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6512573180102</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0.6197054599889589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4328,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3082.381305113554</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3082.381305113554</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066531</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.6594280995014</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C4" t="n">
-        <v>463.6594280995014</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>313.5427886871656</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>165.6296951047725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>165.6296951047725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6296951047725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4486,16 +4488,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>812.5736815556427</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732712</v>
+        <v>584.5841306576253</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297411</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.433183287319</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1163.908627226606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>935.9190763285891</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.126497185059</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.63871203243</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.676195092019</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>897.4104964852681</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>897.4104964852681</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>486.4245916956606</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>71.35214154065704</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
-        <v>71.35214154065704</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>2656.568750250373</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>645.3078929297402</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>476.3717100018333</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>326.2550705894976</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>178.3419770071044</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1383.507193008248</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>866.1004720732703</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>645.3078929297402</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,13 +5080,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5117,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>634.334587849125</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>484.2179484367892</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>336.3048548543961</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>336.3048548543961</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1087555692761</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,37 +5767,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.292633715179</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171618</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736317</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6077,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306002</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2824.769373306002</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2824.769373306002</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2824.769373306002</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420636</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.199968177789</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279772</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136242</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,55 +6451,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,22 +6603,22 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>114.9565346495158</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6689,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,16 +6788,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1018.438627038651</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>849.5024441107445</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>699.3858046984087</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>551.4727111160156</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>404.5827636181052</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>237.3866643329852</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>95.67483317518324</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1938.286391947399</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1648.869221910438</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1420.879671012421</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.087091868891</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6959,28 +6961,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7318,16 +7320,16 @@
         <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7503,7 +7505,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C43" t="n">
-        <v>2646.594662309226</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D43" t="n">
-        <v>2646.594662309226</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>2646.594662309226</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7733,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7845,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.75554125013272</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>14.48117232036719</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>85.77246603528388</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>68.52575990662524</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.5874149221291134</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>63.36835372228745</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>40.23897475306318</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>50.29392045468801</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G31" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>79.42624789262628</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>105.058398071027</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287551</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26420,31 @@
         <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14216.75207685511</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685511</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26503,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811670.9245059445</v>
+        <v>-811670.9245059441</v>
       </c>
       <c r="C6" t="n">
-        <v>517073.8212216482</v>
+        <v>517073.821221648</v>
       </c>
       <c r="D6" t="n">
-        <v>517073.8212216481</v>
+        <v>517073.8212216487</v>
       </c>
       <c r="E6" t="n">
-        <v>265501.5310206384</v>
+        <v>265501.5310206378</v>
       </c>
       <c r="F6" t="n">
+        <v>590913.9928279931</v>
+      </c>
+      <c r="G6" t="n">
         <v>590913.9928279934</v>
       </c>
-      <c r="G6" t="n">
-        <v>590913.9928279932</v>
-      </c>
       <c r="H6" t="n">
-        <v>590913.9928279931</v>
+        <v>590913.9928279934</v>
       </c>
       <c r="I6" t="n">
-        <v>590913.9928279935</v>
+        <v>590913.9928279936</v>
       </c>
       <c r="J6" t="n">
-        <v>373382.790430716</v>
+        <v>373382.7904307158</v>
       </c>
       <c r="K6" t="n">
-        <v>590913.9928279932</v>
+        <v>590913.992827993</v>
       </c>
       <c r="L6" t="n">
         <v>590913.9928279932</v>
       </c>
       <c r="M6" t="n">
-        <v>505858.9648924813</v>
+        <v>505858.9648924816</v>
       </c>
       <c r="N6" t="n">
         <v>590913.9928279934</v>
@@ -26561,7 +26563,7 @@
         <v>590913.9928279934</v>
       </c>
       <c r="P6" t="n">
-        <v>590913.992827993</v>
+        <v>590913.9928279934</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26790,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>72.31346059713573</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.5391317674133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>46.6286120284576</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.3876335676849</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>84.51272999092919</v>
       </c>
       <c r="C5" t="n">
-        <v>316.7465427605175</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>42.02872873825321</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>91.07852182239</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>74.44654320283689</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.78530491553706</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>34.70948605375942</v>
       </c>
       <c r="G10" t="n">
-        <v>83.32522828944184</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="18">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
@@ -31853,7 +31855,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>332.169238832108</v>
+        <v>333.9544784328829</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214697</v>
@@ -32078,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206133</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32968,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,7 +33034,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33664,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34147,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34223,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,22 +34453,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525818</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
@@ -35501,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876636</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071394</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394658</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367784</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37795,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37871,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>220.9409070342396</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3145519.307915126</v>
+        <v>3141506.697901134</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>131.6045095424844</v>
+        <v>26.36535177769975</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>61.42978662487786</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.19701978440991</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>298.2211116725514</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>105.0221052551886</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>106.5867442799591</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.2872984606437</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>177.2979137777574</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>110.7115619691718</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4.043187116398977</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>211.22848306867</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9371893537533</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>68.17501931583776</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9367233701397</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>26.1362719570585</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710103</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428163</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>120.6512573180102</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3082.381305113554</v>
+        <v>3298.974153146847</v>
       </c>
       <c r="U2" t="n">
-        <v>3082.381305113554</v>
+        <v>3045.443676420683</v>
       </c>
       <c r="V2" t="n">
-        <v>2751.318417769983</v>
+        <v>2714.380789077113</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.318417769983</v>
+        <v>2361.612133806998</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1988.146375545919</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686089</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080144</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.5649387724261</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,46 +4494,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.67533979849</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592603</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556427</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>584.5841306576253</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>567.2134036026658</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1040.650304738526</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4579,10 +4579,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2678.274518176916</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2288.135186201105</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4646,10 +4646,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.2242361621296</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C7" t="n">
-        <v>880.2242361621296</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1864.571497852645</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621296</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621296</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250373</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2656.568750250373</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645.3078929297402</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C10" t="n">
-        <v>476.3717100018333</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D10" t="n">
-        <v>326.2550705894976</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="E10" t="n">
-        <v>178.3419770071044</v>
+        <v>217.4860913203958</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -4962,52 +4962,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214135</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008248</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971288</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732703</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297402</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5241,10 +5241,10 @@
         <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.52355647915</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356195</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2420.562808876161</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2420.562808876161</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2420.562808876161</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>197.0043242297712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,46 +6925,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7186,37 +7186,37 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,16 +7417,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7505,13 +7505,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.6673633290469</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>699.73118040114</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1089.459942472577</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>868.6673633290469</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>2.288530476235451e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>14.48117232036719</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>85.77246603528388</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>72.11969353038613</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5874149221291134</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.23897475306318</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>38.13892827624255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>105.058398071027</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287556</v>
@@ -26334,16 +26334,16 @@
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287557</v>
@@ -26352,10 +26352,10 @@
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26368,37 +26368,37 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.978066954208771e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820645</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26447,7 +26447,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685493</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26499,13 +26499,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811670.9245059441</v>
+        <v>-811670.9245059437</v>
       </c>
       <c r="C6" t="n">
-        <v>517073.821221648</v>
+        <v>517073.8212216478</v>
       </c>
       <c r="D6" t="n">
-        <v>517073.8212216487</v>
+        <v>517073.8212216485</v>
       </c>
       <c r="E6" t="n">
-        <v>265501.5310206378</v>
+        <v>265154.1517662812</v>
       </c>
       <c r="F6" t="n">
-        <v>590913.9928279931</v>
+        <v>590566.6135736363</v>
       </c>
       <c r="G6" t="n">
-        <v>590913.9928279934</v>
+        <v>590566.6135736365</v>
       </c>
       <c r="H6" t="n">
-        <v>590913.9928279934</v>
+        <v>590566.6135736363</v>
       </c>
       <c r="I6" t="n">
-        <v>590913.9928279936</v>
+        <v>590566.6135736366</v>
       </c>
       <c r="J6" t="n">
-        <v>373382.7904307158</v>
+        <v>373035.4111763589</v>
       </c>
       <c r="K6" t="n">
-        <v>590913.992827993</v>
+        <v>590566.6135736365</v>
       </c>
       <c r="L6" t="n">
-        <v>590913.9928279932</v>
+        <v>590566.6135736363</v>
       </c>
       <c r="M6" t="n">
-        <v>505858.9648924816</v>
+        <v>505511.5856381248</v>
       </c>
       <c r="N6" t="n">
-        <v>590913.9928279934</v>
+        <v>590566.6135736364</v>
       </c>
       <c r="O6" t="n">
-        <v>590913.9928279934</v>
+        <v>590566.613573637</v>
       </c>
       <c r="P6" t="n">
-        <v>590913.9928279934</v>
+        <v>590566.6135736365</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,23 +26962,23 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>72.31346059713573</v>
+        <v>177.5526183619204</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>190.7078566989501</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.3876335676849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.51272999092919</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>276.9082648170732</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02872873825321</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>190.0418235903385</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.44654320283689</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>150.4543446923775</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>34.70948605375942</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>140.7118277979218</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970261</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328829</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>173.3851399586643</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>270.3182595810212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525818</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884385</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312443</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>31.25110603664601</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367784</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3141506.697901134</v>
+        <v>3143267.228203919</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>111.7032299015037</v>
       </c>
       <c r="G2" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>26.36535177769975</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>96.50675189249439</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>61.42978662487786</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>105.0221052551886</v>
+        <v>138.1665993380032</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>62.09581973348946</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>147.2339392611577</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4.043187116398977</v>
       </c>
       <c r="H10" t="n">
-        <v>4.043187116398977</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>78.9105100867805</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>174.3474135131859</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>100.5858322992699</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.546535481797</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.584018541385</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="D2" t="n">
-        <v>874.3183199346347</v>
+        <v>915.7444596518455</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>529.9562070536012</v>
       </c>
       <c r="F2" t="n">
-        <v>77.54416254678286</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3298.974153146847</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3045.443676420683</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2714.380789077113</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2361.612133806998</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>1988.146375545919</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1988.146375545919</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="3">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4524,16 +4524,16 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1865.244258568413</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.827088531452</v>
+        <v>1637.877378051531</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.878520285688</v>
+        <v>2098.941407629259</v>
       </c>
       <c r="C5" t="n">
-        <v>1398.916003345277</v>
+        <v>1729.978890688848</v>
       </c>
       <c r="D5" t="n">
-        <v>1040.650304738526</v>
+        <v>1371.713192082097</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4579,10 +4579,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4649,49 +4649,49 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1864.571497852645</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.154327815684</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.164776917667</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.372197774137</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>268.2622120761603</v>
       </c>
       <c r="F8" t="n">
         <v>119.5410613073141</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4953,7 +4953,7 @@
         <v>70.5961438224854</v>
       </c>
       <c r="G10" t="n">
-        <v>70.5961438224854</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892232</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5652,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,10 +5843,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6852,37 +6852,37 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7089,40 +7089,40 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
         <v>2035.268256189238</v>
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,40 +7332,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925216</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7833,10 +7833,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1746.193029533436</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>67.52345255978867</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>111.8370608760582</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>39.70888054695402</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287554</v>
@@ -26331,31 +26331,31 @@
         <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26374,28 +26374,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.978066954208771e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551175</v>
@@ -26423,10 +26423,10 @@
         <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26441,16 +26441,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685493</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26499,7 +26499,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811670.9245059437</v>
+        <v>-811670.9245059439</v>
       </c>
       <c r="C6" t="n">
-        <v>517073.8212216478</v>
+        <v>517073.8212216476</v>
       </c>
       <c r="D6" t="n">
-        <v>517073.8212216485</v>
+        <v>517073.8212216484</v>
       </c>
       <c r="E6" t="n">
-        <v>265154.1517662812</v>
+        <v>265466.7930952025</v>
       </c>
       <c r="F6" t="n">
-        <v>590566.6135736363</v>
+        <v>590879.2549025574</v>
       </c>
       <c r="G6" t="n">
-        <v>590566.6135736365</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="H6" t="n">
-        <v>590566.6135736363</v>
+        <v>590879.2549025579</v>
       </c>
       <c r="I6" t="n">
-        <v>590566.6135736366</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="J6" t="n">
-        <v>373035.4111763589</v>
+        <v>373348.0525052805</v>
       </c>
       <c r="K6" t="n">
-        <v>590566.6135736365</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="L6" t="n">
-        <v>590566.6135736363</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="M6" t="n">
-        <v>505511.5856381248</v>
+        <v>505824.226967046</v>
       </c>
       <c r="N6" t="n">
-        <v>590566.6135736364</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="O6" t="n">
-        <v>590566.613573637</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="P6" t="n">
-        <v>590566.6135736365</v>
+        <v>590879.2549025577</v>
       </c>
     </row>
   </sheetData>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973554</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>295.1728158402078</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>177.5526183619204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>83.3252282894429</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>190.7078566989501</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>276.9082648170732</v>
+        <v>243.7637707342585</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>190.0418235903385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>259.6421064805537</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923775</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>161.9826211426293</v>
       </c>
       <c r="H10" t="n">
-        <v>140.7118277979218</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502014</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587111</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
